--- a/biology/Botanique/Forêt_de_Ripaille/Forêt_de_Ripaille.xlsx
+++ b/biology/Botanique/Forêt_de_Ripaille/Forêt_de_Ripaille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Ripaille</t>
+          <t>Forêt_de_Ripaille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Ripaille est un domaine forestier situé sur le territoire de la commune de Thonon-les-Bains (Haute-Savoie), dans le domaine de Ripaille. La forêt s'étend sur 53 hectares.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Ripaille</t>
+          <t>Forêt_de_Ripaille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt de Ripaille est contiguë au Château de Ripaille, au nord-est de la ville de Thonon-les-Bains. Elle s'étend vers l'est jusqu'à la Dranse sur 53 hectares.
 Elle comprend la réserve naturelle du delta de la Dranse, et l'arboretum de Ripaille encerclé d'un mur d'enceinte dépendant du château de Ripaille.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Ripaille</t>
+          <t>Forêt_de_Ripaille</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt est un ancien domaine de chasse des Ducs de Savoie et est composée principalement de pins et de chênes rouvres. Elle abrite une faune composée de quelques spécimens de chevreuils, de rongeurs et une héronnière[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt est un ancien domaine de chasse des Ducs de Savoie et est composée principalement de pins et de chênes rouvres. Elle abrite une faune composée de quelques spécimens de chevreuils, de rongeurs et une héronnière.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Ripaille</t>
+          <t>Forêt_de_Ripaille</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Mémorial national des Justes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Mémorial des Justes est un monument érigé sur le territoire de la commune de Thonon-les-Bains, au bord du lac Léman, dans une clairière, à côté de la fôret, pour rendre hommage aux Français ayant secouru des Juifs pendant la Seconde Guerre mondiale.
 </t>
